--- a/Income/TMO_inc.xlsx
+++ b/Income/TMO_inc.xlsx
@@ -2176,16 +2176,16 @@
         <v>0.4974</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.4626</v>
+        <v>0.4733</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4424</v>
+        <v>0.454</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4311</v>
+        <v>0.4429</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.4316</v>
+        <v>0.4435</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.4448</v>
@@ -4201,16 +4201,16 @@
         <v>0.3181</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.2932</v>
+        <v>0.2919</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.2633</v>
+        <v>0.2618</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.2712</v>
+        <v>0.2698</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2705</v>
+        <v>0.269</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2684</v>
